--- a/OmdbAPI - STP.xlsx
+++ b/OmdbAPI - STP.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amassalh/super-api-tests/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amassalh/OmdbAPI/Powerinbox---Automation-task/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8EEE6D3-4BC5-5A49-8CD0-A79D7F05F59C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8388B2EC-D933-6945-BA41-C9C9E6B85630}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="2360" windowWidth="27640" windowHeight="16940" xr2:uid="{AD88CF63-70DA-2941-A58B-21EEEE8C0296}"/>
   </bookViews>
@@ -33,11 +33,75 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+  <si>
+    <t>Omdb</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>return message - negative cases</t>
+  </si>
+  <si>
+    <t>return message - positive cases</t>
+  </si>
+  <si>
+    <t>functionality</t>
+  </si>
+  <si>
+    <t>verify the result of sending a valid params</t>
+  </si>
+  <si>
+    <t>verify the result of sending a invalid params</t>
+  </si>
+  <si>
+    <t>etc…</t>
+  </si>
+  <si>
+    <t>to check how many requests can handle concurrently</t>
+  </si>
+  <si>
+    <t>to check how many requests can handle daily</t>
+  </si>
+  <si>
+    <t>verify the return message of negative cases</t>
+  </si>
+  <si>
+    <t>verify the return message of positive cases</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -64,8 +128,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,14 +446,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9ADC814-E1F5-684C-8920-F3BA10C83D5A}">
-  <dimension ref="A1"/>
+  <dimension ref="E6:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="60.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="5:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="E6" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="5:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="F7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="5:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="F8" s="1"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="5:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="F9" s="1"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="5:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="F10" s="1"/>
+      <c r="G10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="5:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="F11" s="1"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="5:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="F12" s="1"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="5:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="F13" s="1"/>
+      <c r="G13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="5:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="F14" s="1"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="5:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="F15" s="1"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="5:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="F16" s="1"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="6:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="F17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="6:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="F18" s="1"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="6:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="G19" s="2"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="6:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="G20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="6:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="H21" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>